--- a/REGULAR/ASSESSOR/TORRES, SONIA.xlsx
+++ b/REGULAR/ASSESSOR/TORRES, SONIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="252">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1812,7 +1812,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A526" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="E535" sqref="E535"/>
+      <selection pane="bottomLeft" activeCell="K536" sqref="K536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1973,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>259.16800000000001</v>
+        <v>260.41800000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1983,7 +1983,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>317.75</v>
+        <v>318</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13411,19 +13411,27 @@
       <c r="A536" s="40">
         <v>45200</v>
       </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
+      <c r="B536" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H536" s="39"/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H536" s="39">
+        <v>1</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
@@ -14320,7 +14328,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>576.91800000000001</v>
+        <v>578.41800000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
